--- a/grupos/6BLCM - Estadisticos 20242.xlsx
+++ b/grupos/6BLCM - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="72">
   <si>
     <t>Materia</t>
   </si>
@@ -203,12 +203,12 @@
     <t>Vazquez Galarza Maria Miriam</t>
   </si>
   <si>
+    <t>Martínez Castillo Columba</t>
+  </si>
+  <si>
     <t>Martinez Cortes Wendy Karyme</t>
   </si>
   <si>
-    <t>Martínez Castillo Columba</t>
-  </si>
-  <si>
     <t>Ángel Martínez Gerson Hermenegildo</t>
   </si>
   <si>
@@ -230,19 +230,10 @@
     <t>ZAVALA</t>
   </si>
   <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
     <t>DELGADO</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>AXEL GAEL</t>
-  </si>
-  <si>
-    <t>TOBIAS</t>
   </si>
 </sst>
 </file>
@@ -753,22 +744,22 @@
         <v>8</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -795,16 +786,16 @@
         <v>8</v>
       </c>
       <c r="V4">
+        <v>8</v>
+      </c>
+      <c r="W4">
         <v>7</v>
-      </c>
-      <c r="W4">
-        <v>5</v>
       </c>
       <c r="X4">
         <v>7</v>
       </c>
       <c r="Y4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -830,22 +821,22 @@
         <v>9</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -875,10 +866,10 @@
         <v>10</v>
       </c>
       <c r="W5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y5">
         <v>9</v>
@@ -907,22 +898,22 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -952,13 +943,13 @@
         <v>10</v>
       </c>
       <c r="W6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -984,22 +975,22 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1026,13 +1017,13 @@
         <v>10</v>
       </c>
       <c r="V7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y7">
         <v>10</v>
@@ -1061,22 +1052,22 @@
         <v>9</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1106,13 +1097,13 @@
         <v>10</v>
       </c>
       <c r="W8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X8">
         <v>10</v>
       </c>
       <c r="Y8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1138,22 +1129,22 @@
         <v>10</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1183,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="W9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X9">
         <v>10</v>
@@ -1215,22 +1206,22 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1251,22 +1242,22 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X10">
         <v>10</v>
       </c>
       <c r="Y10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1292,22 +1283,22 @@
         <v>8</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1328,22 +1319,22 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V11">
         <v>8</v>
       </c>
       <c r="W11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X11">
         <v>10</v>
       </c>
       <c r="Y11">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1369,22 +1360,22 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1405,19 +1396,19 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V12">
         <v>9</v>
       </c>
       <c r="W12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y12">
         <v>10</v>
@@ -1446,22 +1437,22 @@
         <v>10</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1482,19 +1473,19 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y13">
         <v>10</v>
@@ -1523,22 +1514,22 @@
         <v>8</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1568,13 +1559,13 @@
         <v>10</v>
       </c>
       <c r="W14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X14">
         <v>9</v>
       </c>
       <c r="Y14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1600,22 +1591,22 @@
         <v>10</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1677,22 +1668,22 @@
         <v>10</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1754,22 +1745,22 @@
         <v>7</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1796,16 +1787,16 @@
         <v>9</v>
       </c>
       <c r="V17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y17">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1831,22 +1822,22 @@
         <v>7</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1867,16 +1858,16 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X18">
         <v>10</v>
@@ -1908,22 +1899,22 @@
         <v>10</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1953,7 +1944,7 @@
         <v>10</v>
       </c>
       <c r="W19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X19">
         <v>10</v>
@@ -1985,22 +1976,22 @@
         <v>9</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -2021,19 +2012,19 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y20">
         <v>9</v>
@@ -2062,22 +2053,22 @@
         <v>10</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2139,22 +2130,22 @@
         <v>10</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2181,10 +2172,10 @@
         <v>10</v>
       </c>
       <c r="V22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X22">
         <v>10</v>
@@ -2216,22 +2207,22 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2293,22 +2284,22 @@
         <v>8</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2329,22 +2320,22 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X24">
         <v>10</v>
       </c>
       <c r="Y24">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2370,22 +2361,22 @@
         <v>9</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2406,22 +2397,22 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X25">
         <v>10</v>
       </c>
       <c r="Y25">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2447,22 +2438,22 @@
         <v>10</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2489,7 +2480,7 @@
         <v>9</v>
       </c>
       <c r="V26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W26">
         <v>10</v>
@@ -2524,22 +2515,22 @@
         <v>9</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2566,13 +2557,13 @@
         <v>8</v>
       </c>
       <c r="V27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y27">
         <v>9</v>
@@ -2601,22 +2592,22 @@
         <v>8</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2649,10 +2640,10 @@
         <v>10</v>
       </c>
       <c r="X28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y28">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2678,22 +2669,22 @@
         <v>10</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2755,22 +2746,22 @@
         <v>7</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2800,10 +2791,10 @@
         <v>8</v>
       </c>
       <c r="W30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y30">
         <v>7</v>
@@ -2832,22 +2823,22 @@
         <v>9</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2874,16 +2865,16 @@
         <v>9</v>
       </c>
       <c r="V31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y31">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -2909,22 +2900,22 @@
         <v>10</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N32">
         <v>-1</v>
@@ -2951,16 +2942,16 @@
         <v>9</v>
       </c>
       <c r="V32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X32">
         <v>10</v>
       </c>
       <c r="Y32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -2986,22 +2977,22 @@
         <v>8</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -3022,13 +3013,13 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W33">
         <v>8</v>
@@ -3063,22 +3054,22 @@
         <v>8</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N34">
         <v>-1</v>
@@ -3105,13 +3096,13 @@
         <v>9</v>
       </c>
       <c r="V34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y34">
         <v>8</v>
@@ -3140,22 +3131,22 @@
         <v>8</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N35">
         <v>-1</v>
@@ -3185,13 +3176,13 @@
         <v>9</v>
       </c>
       <c r="W35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X35">
         <v>10</v>
       </c>
       <c r="Y35">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3217,22 +3208,22 @@
         <v>8</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N36">
         <v>-1</v>
@@ -3253,22 +3244,22 @@
         <v>-1</v>
       </c>
       <c r="T36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V36">
         <v>10</v>
       </c>
       <c r="W36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y36">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3294,22 +3285,22 @@
         <v>10</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N37">
         <v>-1</v>
@@ -3330,10 +3321,10 @@
         <v>-1</v>
       </c>
       <c r="T37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V37">
         <v>10</v>
@@ -3371,22 +3362,22 @@
         <v>5</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N38">
         <v>-1</v>
@@ -3407,19 +3398,19 @@
         <v>-1</v>
       </c>
       <c r="T38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V38">
         <v>5</v>
       </c>
       <c r="W38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y38">
         <v>5</v>
@@ -3448,22 +3439,22 @@
         <v>9</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N39">
         <v>-1</v>
@@ -3484,22 +3475,22 @@
         <v>-1</v>
       </c>
       <c r="T39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V39">
         <v>10</v>
       </c>
       <c r="W39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X39">
         <v>10</v>
       </c>
       <c r="Y39">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3632,46 +3623,46 @@
         <v>60</v>
       </c>
       <c r="F4">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="G4">
         <v>96</v>
       </c>
       <c r="H4">
-        <v>95</v>
+        <v>94.3</v>
       </c>
       <c r="I4">
-        <v>95</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="J4">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K4">
-        <v>60</v>
+        <v>63.6</v>
       </c>
       <c r="L4">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M4">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="N4">
-        <v>95</v>
+        <v>94.3</v>
       </c>
       <c r="O4">
-        <v>95</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="P4">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q4">
-        <v>60</v>
+        <v>63.6</v>
       </c>
       <c r="R4">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="S4">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3691,16 +3682,16 @@
         <v>100</v>
       </c>
       <c r="F5">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="J5">
         <v>100</v>
@@ -3709,16 +3700,16 @@
         <v>100</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="M5">
         <v>100</v>
       </c>
       <c r="N5">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="P5">
         <v>100</v>
@@ -3727,7 +3718,7 @@
         <v>100</v>
       </c>
       <c r="R5">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="S5">
         <v>100</v>
@@ -3750,7 +3741,7 @@
         <v>100</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="G6">
         <v>100</v>
@@ -3762,13 +3753,13 @@
         <v>100</v>
       </c>
       <c r="J6">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K6">
         <v>100</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="M6">
         <v>100</v>
@@ -3780,13 +3771,13 @@
         <v>100</v>
       </c>
       <c r="P6">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>100</v>
       </c>
       <c r="R6">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="S6">
         <v>100</v>
@@ -3809,43 +3800,43 @@
         <v>88</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>100</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="J7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K7">
-        <v>88</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M7">
         <v>100</v>
       </c>
       <c r="N7">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="P7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q7">
-        <v>88</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S7">
         <v>100</v>
@@ -3868,7 +3859,7 @@
         <v>100</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -3883,10 +3874,10 @@
         <v>100</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8">
         <v>100</v>
@@ -3901,10 +3892,10 @@
         <v>100</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S8">
         <v>100</v>
@@ -3927,43 +3918,43 @@
         <v>100</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9">
         <v>100</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="J9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>100</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9">
         <v>100</v>
       </c>
       <c r="N9">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="O9">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="P9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q9">
         <v>100</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9">
         <v>100</v>
@@ -3986,43 +3977,43 @@
         <v>100</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G10">
         <v>100</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="J10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K10">
         <v>100</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10">
         <v>100</v>
       </c>
       <c r="N10">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="P10">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q10">
         <v>100</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S10">
         <v>100</v>
@@ -4045,43 +4036,43 @@
         <v>100</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G11">
         <v>100</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="I11">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="J11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>100</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11">
         <v>100</v>
       </c>
       <c r="N11">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="P11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q11">
         <v>100</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S11">
         <v>100</v>
@@ -4104,43 +4095,43 @@
         <v>100</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="G12">
         <v>100</v>
       </c>
       <c r="H12">
-        <v>90</v>
+        <v>93.2</v>
       </c>
       <c r="I12">
-        <v>90</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="J12">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K12">
         <v>100</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="M12">
         <v>100</v>
       </c>
       <c r="N12">
-        <v>90</v>
+        <v>93.2</v>
       </c>
       <c r="O12">
-        <v>90</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="P12">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q12">
         <v>100</v>
       </c>
       <c r="R12">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="S12">
         <v>100</v>
@@ -4163,46 +4154,46 @@
         <v>100</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="G13">
         <v>96</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="I13">
         <v>100</v>
       </c>
       <c r="J13">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K13">
         <v>100</v>
       </c>
       <c r="L13">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="M13">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="N13">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="O13">
         <v>100</v>
       </c>
       <c r="P13">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q13">
         <v>100</v>
       </c>
       <c r="R13">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="S13">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -4222,7 +4213,7 @@
         <v>100</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14">
         <v>96</v>
@@ -4234,16 +4225,16 @@
         <v>100</v>
       </c>
       <c r="J14">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <v>100</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="N14">
         <v>100</v>
@@ -4252,16 +4243,16 @@
         <v>100</v>
       </c>
       <c r="P14">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q14">
         <v>100</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S14">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4281,7 +4272,7 @@
         <v>100</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15">
         <v>100</v>
@@ -4299,7 +4290,7 @@
         <v>100</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15">
         <v>100</v>
@@ -4317,7 +4308,7 @@
         <v>100</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S15">
         <v>100</v>
@@ -4340,7 +4331,7 @@
         <v>100</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G16">
         <v>100</v>
@@ -4358,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M16">
         <v>100</v>
@@ -4376,7 +4367,7 @@
         <v>100</v>
       </c>
       <c r="R16">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="S16">
         <v>100</v>
@@ -4399,46 +4390,46 @@
         <v>96</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G17">
         <v>96</v>
       </c>
       <c r="H17">
-        <v>97.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I17">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="J17">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K17">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="N17">
-        <v>97.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="P17">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q17">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="R17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="S17">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4458,43 +4449,43 @@
         <v>100</v>
       </c>
       <c r="F18">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G18">
         <v>100</v>
       </c>
       <c r="H18">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="I18">
-        <v>95</v>
+        <v>97.7</v>
       </c>
       <c r="J18">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K18">
         <v>100</v>
       </c>
       <c r="L18">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M18">
         <v>100</v>
       </c>
       <c r="N18">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="O18">
-        <v>95</v>
+        <v>97.7</v>
       </c>
       <c r="P18">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q18">
         <v>100</v>
       </c>
       <c r="R18">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="S18">
         <v>100</v>
@@ -4517,7 +4508,7 @@
         <v>100</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G19">
         <v>100</v>
@@ -4535,7 +4526,7 @@
         <v>100</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M19">
         <v>100</v>
@@ -4553,7 +4544,7 @@
         <v>100</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S19">
         <v>100</v>
@@ -4576,16 +4567,16 @@
         <v>100</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20">
         <v>100</v>
       </c>
       <c r="H20">
-        <v>95</v>
+        <v>97.7</v>
       </c>
       <c r="I20">
-        <v>90</v>
+        <v>95.5</v>
       </c>
       <c r="J20">
         <v>100</v>
@@ -4594,16 +4585,16 @@
         <v>100</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M20">
         <v>100</v>
       </c>
       <c r="N20">
-        <v>95</v>
+        <v>97.7</v>
       </c>
       <c r="O20">
-        <v>90</v>
+        <v>95.5</v>
       </c>
       <c r="P20">
         <v>100</v>
@@ -4612,7 +4603,7 @@
         <v>100</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20">
         <v>100</v>
@@ -4635,7 +4626,7 @@
         <v>100</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21">
         <v>100</v>
@@ -4653,7 +4644,7 @@
         <v>100</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21">
         <v>100</v>
@@ -4671,7 +4662,7 @@
         <v>100</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S21">
         <v>100</v>
@@ -4694,16 +4685,16 @@
         <v>100</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22">
         <v>100</v>
       </c>
       <c r="H22">
-        <v>97.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I22">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -4712,16 +4703,16 @@
         <v>100</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22">
         <v>100</v>
       </c>
       <c r="N22">
-        <v>97.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="O22">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="P22">
         <v>100</v>
@@ -4730,7 +4721,7 @@
         <v>100</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22">
         <v>100</v>
@@ -4753,43 +4744,43 @@
         <v>100</v>
       </c>
       <c r="F23">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G23">
         <v>100</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="I23">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="J23">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K23">
         <v>100</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M23">
         <v>100</v>
       </c>
       <c r="N23">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="O23">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="P23">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q23">
         <v>100</v>
       </c>
       <c r="R23">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="S23">
         <v>100</v>
@@ -4812,43 +4803,43 @@
         <v>100</v>
       </c>
       <c r="F24">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G24">
         <v>100</v>
       </c>
       <c r="H24">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="I24">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="J24">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M24">
         <v>100</v>
       </c>
       <c r="N24">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="O24">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="P24">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q24">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="R24">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="S24">
         <v>100</v>
@@ -4871,43 +4862,43 @@
         <v>84</v>
       </c>
       <c r="F25">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G25">
         <v>100</v>
       </c>
       <c r="H25">
-        <v>92.5</v>
+        <v>94.3</v>
       </c>
       <c r="I25">
-        <v>90</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="K25">
-        <v>84</v>
+        <v>92.7</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M25">
         <v>100</v>
       </c>
       <c r="N25">
-        <v>92.5</v>
+        <v>94.3</v>
       </c>
       <c r="O25">
-        <v>90</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="P25">
         <v>100</v>
       </c>
       <c r="Q25">
-        <v>84</v>
+        <v>92.7</v>
       </c>
       <c r="R25">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="S25">
         <v>100</v>
@@ -4930,43 +4921,43 @@
         <v>100</v>
       </c>
       <c r="F26">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G26">
         <v>100</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I26">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="J26">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K26">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M26">
         <v>100</v>
       </c>
       <c r="N26">
-        <v>100</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="O26">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="P26">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q26">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="R26">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="S26">
         <v>100</v>
@@ -4989,43 +4980,43 @@
         <v>100</v>
       </c>
       <c r="F27">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G27">
         <v>100</v>
       </c>
       <c r="H27">
-        <v>95</v>
+        <v>94.3</v>
       </c>
       <c r="I27">
-        <v>90</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="J27">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K27">
         <v>100</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M27">
         <v>100</v>
       </c>
       <c r="N27">
-        <v>95</v>
+        <v>94.3</v>
       </c>
       <c r="O27">
-        <v>90</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="P27">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q27">
         <v>100</v>
       </c>
       <c r="R27">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="S27">
         <v>100</v>
@@ -5048,43 +5039,43 @@
         <v>100</v>
       </c>
       <c r="F28">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G28">
         <v>100</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="I28">
         <v>100</v>
       </c>
       <c r="J28">
+        <v>98</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
         <v>96</v>
       </c>
-      <c r="K28">
-        <v>100</v>
-      </c>
-      <c r="L28">
-        <v>80</v>
-      </c>
       <c r="M28">
         <v>100</v>
       </c>
       <c r="N28">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="O28">
         <v>100</v>
       </c>
       <c r="P28">
+        <v>98</v>
+      </c>
+      <c r="Q28">
+        <v>100</v>
+      </c>
+      <c r="R28">
         <v>96</v>
-      </c>
-      <c r="Q28">
-        <v>100</v>
-      </c>
-      <c r="R28">
-        <v>80</v>
       </c>
       <c r="S28">
         <v>100</v>
@@ -5107,43 +5098,43 @@
         <v>100</v>
       </c>
       <c r="F29">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G29">
         <v>100</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="I29">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="J29">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K29">
         <v>100</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M29">
         <v>100</v>
       </c>
       <c r="N29">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="O29">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="P29">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q29">
         <v>100</v>
       </c>
       <c r="R29">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="S29">
         <v>100</v>
@@ -5166,46 +5157,46 @@
         <v>88</v>
       </c>
       <c r="F30">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G30">
         <v>92</v>
       </c>
       <c r="H30">
+        <v>92</v>
+      </c>
+      <c r="I30">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="J30">
+        <v>86</v>
+      </c>
+      <c r="K30">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="L30">
         <v>90</v>
       </c>
-      <c r="I30">
-        <v>85</v>
-      </c>
-      <c r="J30">
-        <v>72</v>
-      </c>
-      <c r="K30">
-        <v>88</v>
-      </c>
-      <c r="L30">
-        <v>40</v>
-      </c>
       <c r="M30">
+        <v>95.7</v>
+      </c>
+      <c r="N30">
         <v>92</v>
       </c>
-      <c r="N30">
+      <c r="O30">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="P30">
+        <v>86</v>
+      </c>
+      <c r="Q30">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="R30">
         <v>90</v>
       </c>
-      <c r="O30">
-        <v>85</v>
-      </c>
-      <c r="P30">
-        <v>72</v>
-      </c>
-      <c r="Q30">
-        <v>88</v>
-      </c>
-      <c r="R30">
-        <v>40</v>
-      </c>
       <c r="S30">
-        <v>92</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -5225,43 +5216,43 @@
         <v>88</v>
       </c>
       <c r="F31">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G31">
         <v>100</v>
       </c>
       <c r="H31">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="I31">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31">
-        <v>88</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="L31">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="M31">
         <v>100</v>
       </c>
       <c r="N31">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="O31">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="P31">
         <v>100</v>
       </c>
       <c r="Q31">
-        <v>88</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="R31">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="S31">
         <v>100</v>
@@ -5284,43 +5275,43 @@
         <v>100</v>
       </c>
       <c r="F32">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G32">
         <v>100</v>
       </c>
       <c r="H32">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="I32">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="J32">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K32">
-        <v>100</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L32">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M32">
         <v>100</v>
       </c>
       <c r="N32">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="O32">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="P32">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q32">
-        <v>100</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="R32">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="S32">
         <v>100</v>
@@ -5343,43 +5334,43 @@
         <v>88</v>
       </c>
       <c r="F33">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G33">
         <v>100</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="I33">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="J33">
+        <v>98</v>
+      </c>
+      <c r="K33">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="L33">
         <v>96</v>
       </c>
-      <c r="K33">
-        <v>88</v>
-      </c>
-      <c r="L33">
-        <v>80</v>
-      </c>
       <c r="M33">
         <v>100</v>
       </c>
       <c r="N33">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="O33">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="P33">
+        <v>98</v>
+      </c>
+      <c r="Q33">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="R33">
         <v>96</v>
-      </c>
-      <c r="Q33">
-        <v>88</v>
-      </c>
-      <c r="R33">
-        <v>80</v>
       </c>
       <c r="S33">
         <v>100</v>
@@ -5402,46 +5393,46 @@
         <v>100</v>
       </c>
       <c r="F34">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G34">
         <v>92</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="I34">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="J34">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K34">
         <v>100</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M34">
-        <v>92</v>
+        <v>95.7</v>
       </c>
       <c r="N34">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="O34">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="P34">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q34">
         <v>100</v>
       </c>
       <c r="R34">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="S34">
-        <v>92</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -5461,43 +5452,43 @@
         <v>100</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35">
         <v>100</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="I35">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="J35">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K35">
         <v>100</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35">
         <v>100</v>
       </c>
       <c r="N35">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="O35">
-        <v>100</v>
+        <v>95.5</v>
       </c>
       <c r="P35">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q35">
         <v>100</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35">
         <v>100</v>
@@ -5520,7 +5511,7 @@
         <v>100</v>
       </c>
       <c r="F36">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G36">
         <v>96</v>
@@ -5538,28 +5529,28 @@
         <v>100</v>
       </c>
       <c r="L36">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="M36">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="N36">
+        <v>100</v>
+      </c>
+      <c r="O36">
+        <v>100</v>
+      </c>
+      <c r="P36">
+        <v>100</v>
+      </c>
+      <c r="Q36">
+        <v>100</v>
+      </c>
+      <c r="R36">
         <v>96</v>
       </c>
-      <c r="N36">
-        <v>100</v>
-      </c>
-      <c r="O36">
-        <v>100</v>
-      </c>
-      <c r="P36">
-        <v>100</v>
-      </c>
-      <c r="Q36">
-        <v>100</v>
-      </c>
-      <c r="R36">
-        <v>80</v>
-      </c>
       <c r="S36">
-        <v>96</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -5579,16 +5570,16 @@
         <v>100</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G37">
         <v>100</v>
       </c>
       <c r="H37">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="I37">
-        <v>90</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="J37">
         <v>100</v>
@@ -5597,16 +5588,16 @@
         <v>100</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M37">
         <v>100</v>
       </c>
       <c r="N37">
-        <v>95</v>
+        <v>95.5</v>
       </c>
       <c r="O37">
-        <v>90</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="P37">
         <v>100</v>
@@ -5615,7 +5606,7 @@
         <v>100</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S37">
         <v>100</v>
@@ -5638,46 +5629,46 @@
         <v>76</v>
       </c>
       <c r="F38">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G38">
         <v>72</v>
       </c>
       <c r="H38">
-        <v>92.5</v>
+        <v>92</v>
       </c>
       <c r="I38">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="J38">
+        <v>86</v>
+      </c>
+      <c r="K38">
+        <v>78.2</v>
+      </c>
+      <c r="L38">
         <v>90</v>
       </c>
-      <c r="J38">
-        <v>72</v>
-      </c>
-      <c r="K38">
-        <v>76</v>
-      </c>
-      <c r="L38">
-        <v>80</v>
-      </c>
       <c r="M38">
-        <v>72</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="N38">
-        <v>92.5</v>
+        <v>92</v>
       </c>
       <c r="O38">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="P38">
+        <v>86</v>
+      </c>
+      <c r="Q38">
+        <v>78.2</v>
+      </c>
+      <c r="R38">
         <v>90</v>
       </c>
-      <c r="P38">
-        <v>72</v>
-      </c>
-      <c r="Q38">
-        <v>76</v>
-      </c>
-      <c r="R38">
-        <v>80</v>
-      </c>
       <c r="S38">
-        <v>72</v>
+        <v>76.59999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -5817,7 +5808,7 @@
         <v>2.8</v>
       </c>
       <c r="H2">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -5828,7 +5819,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>61</v>
@@ -5849,7 +5840,7 @@
         <v>2.8</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -5860,7 +5851,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -5869,19 +5860,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>97.2</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -5913,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -5945,7 +5936,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -5977,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -6030,7 +6021,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6071,16 +6062,16 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -6094,10 +6085,10 @@
         <v>69</v>
       </c>
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
         <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -6106,29 +6097,6 @@
         <v>60</v>
       </c>
       <c r="G3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>22330051920124</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4">
         <v>5</v>
       </c>
     </row>
